--- a/StructureDefinition-bc-partial-revise-response-bundle.xlsx
+++ b/StructureDefinition-bc-partial-revise-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-09T00:03:23+00:00</t>
+    <t>2021-12-09T17:37:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-partial-revise-response-bundle.xlsx
+++ b/StructureDefinition-bc-partial-revise-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-09T17:37:25+00:00</t>
+    <t>2021-12-09T21:10:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-partial-revise-response-bundle.xlsx
+++ b/StructureDefinition-bc-partial-revise-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-09T21:10:46+00:00</t>
+    <t>2021-12-10T17:02:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-partial-revise-response-bundle.xlsx
+++ b/StructureDefinition-bc-partial-revise-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-10T17:02:58+00:00</t>
+    <t>2021-12-10T22:55:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-partial-revise-response-bundle.xlsx
+++ b/StructureDefinition-bc-partial-revise-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-10T22:55:51+00:00</t>
+    <t>2021-12-13T17:09:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-partial-revise-response-bundle.xlsx
+++ b/StructureDefinition-bc-partial-revise-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-13T17:09:25+00:00</t>
+    <t>2021-12-13T17:28:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-partial-revise-response-bundle.xlsx
+++ b/StructureDefinition-bc-partial-revise-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-13T17:28:44+00:00</t>
+    <t>2021-12-13T18:05:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-partial-revise-response-bundle.xlsx
+++ b/StructureDefinition-bc-partial-revise-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-13T18:05:39+00:00</t>
+    <t>2021-12-13T18:53:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-partial-revise-response-bundle.xlsx
+++ b/StructureDefinition-bc-partial-revise-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-13T18:53:22+00:00</t>
+    <t>2022-01-13T21:54:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-partial-revise-response-bundle.xlsx
+++ b/StructureDefinition-bc-partial-revise-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-13T21:54:20+00:00</t>
+    <t>2022-01-13T21:55:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-partial-revise-response-bundle.xlsx
+++ b/StructureDefinition-bc-partial-revise-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-13T21:55:58+00:00</t>
+    <t>2022-01-13T22:56:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-partial-revise-response-bundle.xlsx
+++ b/StructureDefinition-bc-partial-revise-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-13T22:56:00+00:00</t>
+    <t>2022-01-14T19:25:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-partial-revise-response-bundle.xlsx
+++ b/StructureDefinition-bc-partial-revise-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-14T19:25:17+00:00</t>
+    <t>2022-02-14T21:52:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-partial-revise-response-bundle.xlsx
+++ b/StructureDefinition-bc-partial-revise-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-14T21:52:54+00:00</t>
+    <t>2022-02-22T22:51:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-partial-revise-response-bundle.xlsx
+++ b/StructureDefinition-bc-partial-revise-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-22T22:51:29+00:00</t>
+    <t>2022-03-01T16:19:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-partial-revise-response-bundle.xlsx
+++ b/StructureDefinition-bc-partial-revise-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-01T16:19:31+00:00</t>
+    <t>2022-03-07T20:54:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-partial-revise-response-bundle.xlsx
+++ b/StructureDefinition-bc-partial-revise-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-07T20:54:41+00:00</t>
+    <t>2022-03-07T21:23:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-partial-revise-response-bundle.xlsx
+++ b/StructureDefinition-bc-partial-revise-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-07T21:23:32+00:00</t>
+    <t>2022-03-07T23:08:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-partial-revise-response-bundle.xlsx
+++ b/StructureDefinition-bc-partial-revise-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-07T23:08:33+00:00</t>
+    <t>2022-03-07T23:35:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-partial-revise-response-bundle.xlsx
+++ b/StructureDefinition-bc-partial-revise-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-07T23:35:33+00:00</t>
+    <t>2022-03-14T20:50:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-partial-revise-response-bundle.xlsx
+++ b/StructureDefinition-bc-partial-revise-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-14T20:50:06+00:00</t>
+    <t>2022-03-18T18:31:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-partial-revise-response-bundle.xlsx
+++ b/StructureDefinition-bc-partial-revise-response-bundle.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5064" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5064" uniqueCount="286">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-18T18:31:40+00:00</t>
+    <t>2022-03-25T22:02:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -847,6 +847,9 @@
     <t>patient</t>
   </si>
   <si>
+    <t>Updated Patient.</t>
+  </si>
+  <si>
     <t xml:space="preserve">SubjectOfCare Client Resident
 </t>
   </si>
@@ -872,6 +875,9 @@
   </si>
   <si>
     <t>parameters</t>
+  </si>
+  <si>
+    <t>Metadata parameters</t>
   </si>
   <si>
     <t xml:space="preserve">Parameters {http://hlth.gov.bc.ca/fhir/client/StructureDefinition/bc-metadata-parameters}
@@ -6610,7 +6616,7 @@
         <v>142</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>173</v>
+        <v>264</v>
       </c>
       <c r="L49" t="s" s="2">
         <v>174</v>
@@ -7250,7 +7256,7 @@
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -7269,13 +7275,13 @@
         <v>75</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -7338,16 +7344,16 @@
         <v>75</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>75</v>
@@ -10113,7 +10119,7 @@
         <v>171</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C81" t="s" s="2">
         <v>75</v>
@@ -10138,7 +10144,7 @@
         <v>142</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>173</v>
+        <v>273</v>
       </c>
       <c r="L81" t="s" s="2">
         <v>174</v>
@@ -10797,16 +10803,16 @@
         <v>75</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
@@ -13643,7 +13649,7 @@
         <v>171</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C113" t="s" s="2">
         <v>75</v>
@@ -14327,7 +14333,7 @@
         <v>85</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="K119" t="s" s="2">
         <v>191</v>
@@ -17168,7 +17174,7 @@
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B145" s="2"/>
       <c r="C145" t="s" s="2">
@@ -17191,19 +17197,19 @@
         <v>85</v>
       </c>
       <c r="J145" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="K145" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="N145" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="O145" t="s" s="2">
         <v>75</v>
@@ -17252,7 +17258,7 @@
         <v>75</v>
       </c>
       <c r="AE145" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="AF145" t="s" s="2">
         <v>76</v>

--- a/StructureDefinition-bc-partial-revise-response-bundle.xlsx
+++ b/StructureDefinition-bc-partial-revise-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-25T22:02:43+00:00</t>
+    <t>2022-03-29T20:42:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-partial-revise-response-bundle.xlsx
+++ b/StructureDefinition-bc-partial-revise-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-29T20:42:47+00:00</t>
+    <t>2022-04-01T14:00:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-partial-revise-response-bundle.xlsx
+++ b/StructureDefinition-bc-partial-revise-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-01T14:00:38+00:00</t>
+    <t>2022-04-04T20:52:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-partial-revise-response-bundle.xlsx
+++ b/StructureDefinition-bc-partial-revise-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-04T20:52:49+00:00</t>
+    <t>2022-04-05T16:12:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-partial-revise-response-bundle.xlsx
+++ b/StructureDefinition-bc-partial-revise-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-05T16:12:45+00:00</t>
+    <t>2022-04-05T17:59:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-partial-revise-response-bundle.xlsx
+++ b/StructureDefinition-bc-partial-revise-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-05T17:59:30+00:00</t>
+    <t>2022-04-18T22:34:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-partial-revise-response-bundle.xlsx
+++ b/StructureDefinition-bc-partial-revise-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-18T22:34:02+00:00</t>
+    <t>2022-04-19T16:13:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-partial-revise-response-bundle.xlsx
+++ b/StructureDefinition-bc-partial-revise-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-19T16:13:11+00:00</t>
+    <t>2022-04-20T20:38:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
